--- a/public/DataPegawai/pegawai.xlsx
+++ b/public/DataPegawai/pegawai.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="28">
   <si>
     <t>Peggy G. Morrison</t>
   </si>
@@ -29,7 +29,7 @@
     <t>827-01-9612</t>
   </si>
   <si>
-    <t>2022-02-08T06:07:31.000000Z</t>
+    <t>2022-02-08T07:06:28.000000Z</t>
   </si>
   <si>
     <t>Robert R. Powell</t>
@@ -90,9 +90,6 @@
   </si>
   <si>
     <t>653-07-1986</t>
-  </si>
-  <si>
-    <t>2022-02-08T06:07:32.000000Z</t>
   </si>
   <si>
     <t>Thomas S. Gooden</t>
@@ -447,7 +444,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -470,7 +467,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
@@ -493,7 +490,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
@@ -516,7 +513,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
         <v>13</v>
@@ -539,7 +536,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
         <v>17</v>
@@ -562,7 +559,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
         <v>21</v>
@@ -577,33 +574,33 @@
         <v>24</v>
       </c>
       <c r="F6" t="s">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="G6" t="s">
-        <v>25</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
         <v>26</v>
-      </c>
-      <c r="C7" t="s">
-        <v>27</v>
       </c>
       <c r="D7" t="s">
         <v>2</v>
       </c>
       <c r="E7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F7" t="s">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="G7" t="s">
-        <v>25</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
